--- a/public/reporteRudel2.xlsx
+++ b/public/reporteRudel2.xlsx
@@ -17007,7 +17007,9 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="33">
+        <v>60</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>

--- a/public/reporteRudel2.xlsx
+++ b/public/reporteRudel2.xlsx
@@ -49,7 +49,7 @@
     <t>Ubicación del equipo:</t>
   </si>
   <si>
-    <t>Economizador II piso 6°, Buzón Eco 2</t>
+    <t>Economizador II piso 6°, Buzón Eco 6</t>
   </si>
   <si>
     <t>Supervisor turno día:</t>
@@ -91,7 +91,7 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>08/05/2017</t>
+    <t>25/05/2017</t>
   </si>
   <si>
     <t>Hora Inicio:</t>

--- a/public/reporteRudel2.xlsx
+++ b/public/reporteRudel2.xlsx
@@ -91,7 +91,7 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>25/05/2017</t>
+    <t>25/05/2018</t>
   </si>
   <si>
     <t>Hora Inicio:</t>

--- a/public/reporteRudel2.xlsx
+++ b/public/reporteRudel2.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Fabricación, Montaje, Mantención y Reparación</t>
   </si>
@@ -91,7 +92,7 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>25/05/2018</t>
+    <t>25/05/2017</t>
   </si>
   <si>
     <t>Hora Inicio:</t>
@@ -145,25 +146,10 @@
     <t>Foto 1:</t>
   </si>
   <si>
-    <t>Tubos cortados</t>
-  </si>
-  <si>
     <t>Foto 2:</t>
   </si>
   <si>
-    <t>En proceso biseleles</t>
-  </si>
-  <si>
     <t>Foto 3:</t>
-  </si>
-  <si>
-    <t>Tubos biselados</t>
-  </si>
-  <si>
-    <t>Soldadura 100%</t>
-  </si>
-  <si>
-    <t>Zona de recapes</t>
   </si>
 </sst>
 </file>
@@ -668,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -710,10 +696,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -999,9 +981,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1343025" cy="647700"/>
     <xdr:pic>
@@ -1028,10 +1010,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2447925" cy="542925"/>
     <xdr:pic>
@@ -1058,10 +1040,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1352550" cy="676275"/>
     <xdr:pic>
@@ -1088,111 +1070,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2505075" cy="523875"/>
+    <xdr:ext cx="1838325" cy="561975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="10 Imagen" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 1" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2495550" cy="495300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="11 Imagen" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2638425" cy="523875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="12 Imagen" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1838325" cy="561975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1504,7 +1396,7 @@
   <dimension ref="A1:AMK80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6732,8 +6624,7 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="12"/>
+      <c r="AQ6" s="11"/>
       <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6"/>
@@ -7718,54 +7609,54 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="15">
       <c r="A7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="15" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -8750,48 +8641,48 @@
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="15">
       <c r="A8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8"/>
@@ -9776,56 +9667,56 @@
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="15">
       <c r="A9"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="18" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="19" t="s">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9"/>
@@ -10810,52 +10701,52 @@
     </row>
     <row r="10" spans="1:1025" customHeight="1" ht="15">
       <c r="A10"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="18" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="20" t="s">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10"/>
@@ -11840,56 +11731,56 @@
     </row>
     <row r="11" spans="1:1025" customHeight="1" ht="15">
       <c r="A11"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="18" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="19" t="s">
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11"/>
@@ -12874,52 +12765,52 @@
     </row>
     <row r="12" spans="1:1025" customHeight="1" ht="15">
       <c r="A12"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="23" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="24" t="s">
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
       <c r="AR12"/>
       <c r="AS12"/>
       <c r="AT12"/>
@@ -13904,52 +13795,52 @@
     </row>
     <row r="13" spans="1:1025" customHeight="1" ht="15">
       <c r="A13"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
       <c r="AR13"/>
       <c r="AS13"/>
       <c r="AT13"/>
@@ -14934,54 +14825,54 @@
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="15">
       <c r="A14"/>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="29" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
       <c r="AR14"/>
       <c r="AS14"/>
       <c r="AT14"/>
@@ -15966,54 +15857,54 @@
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="15">
       <c r="A15"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="29" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15"/>
@@ -16998,54 +16889,54 @@
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="15">
       <c r="A16"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32">
         <v>60</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33" t="s">
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
       <c r="AR16"/>
       <c r="AS16"/>
       <c r="AT16"/>
@@ -18030,50 +17921,50 @@
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="15">
       <c r="A17"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
       <c r="AR17"/>
       <c r="AS17"/>
       <c r="AT17"/>
@@ -19058,48 +18949,48 @@
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="15">
       <c r="A18"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
       <c r="AR18"/>
       <c r="AS18"/>
       <c r="AT18"/>
@@ -20084,58 +19975,58 @@
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="15">
       <c r="A19"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37" t="s">
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="38" t="s">
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
       <c r="AR19"/>
       <c r="AS19"/>
       <c r="AT19"/>
@@ -21120,81 +21011,48 @@
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="15">
       <c r="A20"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="11"/>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="11"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="11"/>
-      <c r="BR20" s="11"/>
-      <c r="BS20" s="11"/>
-      <c r="BT20" s="11"/>
-      <c r="BU20" s="11"/>
-      <c r="BV20" s="11"/>
-      <c r="BW20" s="11"/>
-      <c r="BX20" s="11"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -22146,81 +22004,48 @@
     </row>
     <row r="21" spans="1:1025" customHeight="1" ht="15">
       <c r="A21"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="11"/>
-      <c r="BD21" s="11"/>
-      <c r="BE21" s="11"/>
-      <c r="BF21" s="11"/>
-      <c r="BG21" s="11"/>
-      <c r="BH21" s="11"/>
-      <c r="BI21" s="11"/>
-      <c r="BJ21" s="11"/>
-      <c r="BK21" s="11"/>
-      <c r="BL21" s="11"/>
-      <c r="BM21" s="11"/>
-      <c r="BN21" s="11"/>
-      <c r="BO21" s="11"/>
-      <c r="BP21" s="11"/>
-      <c r="BQ21" s="11"/>
-      <c r="BR21" s="11"/>
-      <c r="BS21" s="11"/>
-      <c r="BT21" s="11"/>
-      <c r="BU21" s="11"/>
-      <c r="BV21" s="11"/>
-      <c r="BW21" s="11"/>
-      <c r="BX21" s="11"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -23171,82 +22996,48 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1025" customHeight="1" ht="15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="11"/>
-      <c r="BC22" s="11"/>
-      <c r="BD22" s="11"/>
-      <c r="BE22" s="11"/>
-      <c r="BF22" s="11"/>
-      <c r="BG22" s="11"/>
-      <c r="BH22" s="11"/>
-      <c r="BI22" s="11"/>
-      <c r="BJ22" s="11"/>
-      <c r="BK22" s="11"/>
-      <c r="BL22" s="11"/>
-      <c r="BM22" s="11"/>
-      <c r="BN22" s="11"/>
-      <c r="BO22" s="11"/>
-      <c r="BP22" s="11"/>
-      <c r="BQ22" s="11"/>
-      <c r="BR22" s="11"/>
-      <c r="BS22" s="11"/>
-      <c r="BT22" s="11"/>
-      <c r="BU22" s="11"/>
-      <c r="BV22" s="11"/>
-      <c r="BW22" s="11"/>
-      <c r="BX22" s="11"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
@@ -24197,82 +23988,48 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1025" customHeight="1" ht="15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="43"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="11"/>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
-      <c r="BI23" s="11"/>
-      <c r="BJ23" s="11"/>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="11"/>
-      <c r="BM23" s="11"/>
-      <c r="BN23" s="11"/>
-      <c r="BO23" s="11"/>
-      <c r="BP23" s="11"/>
-      <c r="BQ23" s="11"/>
-      <c r="BR23" s="11"/>
-      <c r="BS23" s="11"/>
-      <c r="BT23" s="11"/>
-      <c r="BU23" s="11"/>
-      <c r="BV23" s="11"/>
-      <c r="BW23" s="11"/>
-      <c r="BX23" s="11"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -25223,234 +24980,202 @@
       <c r="AMJ23"/>
     </row>
     <row r="24" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="11"/>
-      <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="11"/>
-      <c r="BR24" s="11"/>
-      <c r="BS24" s="11"/>
-      <c r="BT24" s="11"/>
-      <c r="BU24" s="11"/>
-      <c r="BV24" s="11"/>
-      <c r="BW24" s="11"/>
-      <c r="BX24" s="11"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
     </row>
     <row r="25" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="11"/>
-      <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="11"/>
-      <c r="BR25" s="11"/>
-      <c r="BS25" s="11"/>
-      <c r="BT25" s="11"/>
-      <c r="BU25" s="11"/>
-      <c r="BV25" s="11"/>
-      <c r="BW25" s="11"/>
-      <c r="BX25" s="11"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
     </row>
     <row r="26" spans="1:1025" customHeight="1" ht="15">
       <c r="A26" s="10"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
       <c r="AR26" s="10"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="11"/>
-      <c r="BE26" s="11"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="11"/>
-      <c r="BO26" s="11"/>
-      <c r="BP26" s="11"/>
-      <c r="BQ26" s="11"/>
-      <c r="BR26" s="11"/>
-      <c r="BS26" s="11"/>
-      <c r="BT26" s="11"/>
-      <c r="BU26" s="11"/>
-      <c r="BV26" s="11"/>
-      <c r="BW26" s="11"/>
-      <c r="BX26" s="11"/>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -26402,48 +26127,48 @@
     </row>
     <row r="27" spans="1:1025" customHeight="1" ht="15">
       <c r="A27" s="10"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
@@ -27428,81 +27153,49 @@
     </row>
     <row r="28" spans="1:1025" customHeight="1" ht="15">
       <c r="A28" s="10"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
       <c r="AR28" s="10"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="11"/>
-      <c r="AU28" s="11"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="11"/>
-      <c r="AX28" s="11"/>
-      <c r="AY28" s="11"/>
-      <c r="AZ28" s="11"/>
-      <c r="BA28" s="11"/>
-      <c r="BB28" s="11"/>
-      <c r="BC28" s="11"/>
-      <c r="BD28" s="11"/>
-      <c r="BE28" s="11"/>
-      <c r="BF28" s="11"/>
-      <c r="BG28" s="11"/>
-      <c r="BH28" s="11"/>
-      <c r="BI28" s="11"/>
-      <c r="BJ28" s="11"/>
-      <c r="BK28" s="11"/>
-      <c r="BL28" s="11"/>
-      <c r="BM28" s="11"/>
-      <c r="BN28" s="11"/>
-      <c r="BO28" s="11"/>
-      <c r="BP28" s="11"/>
-      <c r="BQ28" s="11"/>
-      <c r="BR28" s="11"/>
-      <c r="BS28" s="11"/>
-      <c r="BT28" s="11"/>
-      <c r="BU28" s="11"/>
-      <c r="BV28" s="11"/>
-      <c r="BW28" s="11"/>
-      <c r="BX28" s="11"/>
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
@@ -28454,81 +28147,49 @@
     </row>
     <row r="29" spans="1:1025" customHeight="1" ht="15">
       <c r="A29" s="10"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
       <c r="AR29" s="10"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="11"/>
-      <c r="BC29" s="11"/>
-      <c r="BD29" s="11"/>
-      <c r="BE29" s="11"/>
-      <c r="BF29" s="11"/>
-      <c r="BG29" s="11"/>
-      <c r="BH29" s="11"/>
-      <c r="BI29" s="11"/>
-      <c r="BJ29" s="11"/>
-      <c r="BK29" s="11"/>
-      <c r="BL29" s="11"/>
-      <c r="BM29" s="11"/>
-      <c r="BN29" s="11"/>
-      <c r="BO29" s="11"/>
-      <c r="BP29" s="11"/>
-      <c r="BQ29" s="11"/>
-      <c r="BR29" s="11"/>
-      <c r="BS29" s="11"/>
-      <c r="BT29" s="11"/>
-      <c r="BU29" s="11"/>
-      <c r="BV29" s="11"/>
-      <c r="BW29" s="11"/>
-      <c r="BX29" s="11"/>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -29480,81 +29141,49 @@
     </row>
     <row r="30" spans="1:1025" customHeight="1" ht="15">
       <c r="A30" s="10"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
       <c r="AR30" s="10"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="11"/>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
-      <c r="AZ30" s="11"/>
-      <c r="BA30" s="11"/>
-      <c r="BB30" s="11"/>
-      <c r="BC30" s="11"/>
-      <c r="BD30" s="11"/>
-      <c r="BE30" s="11"/>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="11"/>
-      <c r="BH30" s="11"/>
-      <c r="BI30" s="11"/>
-      <c r="BJ30" s="11"/>
-      <c r="BK30" s="11"/>
-      <c r="BL30" s="11"/>
-      <c r="BM30" s="11"/>
-      <c r="BN30" s="11"/>
-      <c r="BO30" s="11"/>
-      <c r="BP30" s="11"/>
-      <c r="BQ30" s="11"/>
-      <c r="BR30" s="11"/>
-      <c r="BS30" s="11"/>
-      <c r="BT30" s="11"/>
-      <c r="BU30" s="11"/>
-      <c r="BV30" s="11"/>
-      <c r="BW30" s="11"/>
-      <c r="BX30" s="11"/>
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
@@ -30506,81 +30135,49 @@
     </row>
     <row r="31" spans="1:1025" customHeight="1" ht="15">
       <c r="A31" s="10"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
       <c r="AR31" s="10"/>
-      <c r="AS31" s="11"/>
-      <c r="AT31" s="11"/>
-      <c r="AU31" s="11"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
-      <c r="AZ31" s="11"/>
-      <c r="BA31" s="11"/>
-      <c r="BB31" s="11"/>
-      <c r="BC31" s="11"/>
-      <c r="BD31" s="11"/>
-      <c r="BE31" s="11"/>
-      <c r="BF31" s="11"/>
-      <c r="BG31" s="11"/>
-      <c r="BH31" s="11"/>
-      <c r="BI31" s="11"/>
-      <c r="BJ31" s="11"/>
-      <c r="BK31" s="11"/>
-      <c r="BL31" s="11"/>
-      <c r="BM31" s="11"/>
-      <c r="BN31" s="11"/>
-      <c r="BO31" s="11"/>
-      <c r="BP31" s="11"/>
-      <c r="BQ31" s="11"/>
-      <c r="BR31" s="11"/>
-      <c r="BS31" s="11"/>
-      <c r="BT31" s="11"/>
-      <c r="BU31" s="11"/>
-      <c r="BV31" s="11"/>
-      <c r="BW31" s="11"/>
-      <c r="BX31" s="11"/>
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
@@ -31532,81 +31129,49 @@
     </row>
     <row r="32" spans="1:1025" customHeight="1" ht="15">
       <c r="A32" s="10"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="46"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
       <c r="AR32" s="10"/>
-      <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="11"/>
-      <c r="BB32" s="11"/>
-      <c r="BC32" s="11"/>
-      <c r="BD32" s="11"/>
-      <c r="BE32" s="11"/>
-      <c r="BF32" s="11"/>
-      <c r="BG32" s="11"/>
-      <c r="BH32" s="11"/>
-      <c r="BI32" s="11"/>
-      <c r="BJ32" s="11"/>
-      <c r="BK32" s="11"/>
-      <c r="BL32" s="11"/>
-      <c r="BM32" s="11"/>
-      <c r="BN32" s="11"/>
-      <c r="BO32" s="11"/>
-      <c r="BP32" s="11"/>
-      <c r="BQ32" s="11"/>
-      <c r="BR32" s="11"/>
-      <c r="BS32" s="11"/>
-      <c r="BT32" s="11"/>
-      <c r="BU32" s="11"/>
-      <c r="BV32" s="11"/>
-      <c r="BW32" s="11"/>
-      <c r="BX32" s="11"/>
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
@@ -32558,48 +32123,48 @@
     </row>
     <row r="33" spans="1:1025" customHeight="1" ht="15">
       <c r="A33" s="10"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="50"/>
-      <c r="AP33" s="50"/>
-      <c r="AQ33" s="50"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
       <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
@@ -33584,48 +33149,48 @@
     </row>
     <row r="34" spans="1:1025" customHeight="1" ht="15">
       <c r="A34" s="10"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
@@ -34610,48 +34175,48 @@
     </row>
     <row r="35" spans="1:1025" customHeight="1" ht="15">
       <c r="A35" s="10"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
       <c r="AR35" s="10"/>
       <c r="AS35" s="10"/>
       <c r="AT35" s="10"/>
@@ -35636,48 +35201,48 @@
     </row>
     <row r="36" spans="1:1025" customHeight="1" ht="15">
       <c r="A36" s="10"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="50"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
-      <c r="AQ36" s="50"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
       <c r="AR36" s="10"/>
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
@@ -36662,48 +36227,48 @@
     </row>
     <row r="37" spans="1:1025" customHeight="1" ht="15">
       <c r="A37" s="10"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="50"/>
-      <c r="AQ37" s="50"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
+      <c r="AM37" s="50"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
       <c r="AR37" s="10"/>
       <c r="AS37" s="10"/>
       <c r="AT37" s="10"/>
@@ -37688,48 +37253,48 @@
     </row>
     <row r="38" spans="1:1025" customHeight="1" ht="15">
       <c r="A38" s="10"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="50"/>
-      <c r="AO38" s="50"/>
-      <c r="AP38" s="50"/>
-      <c r="AQ38" s="50"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="50"/>
+      <c r="AL38" s="50"/>
+      <c r="AM38" s="50"/>
+      <c r="AN38" s="49"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
       <c r="AR38" s="10"/>
       <c r="AS38" s="10"/>
       <c r="AT38" s="10"/>
@@ -38714,48 +38279,48 @@
     </row>
     <row r="39" spans="1:1025" customHeight="1" ht="15">
       <c r="A39" s="10"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="51"/>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="50"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
       <c r="AR39" s="10"/>
       <c r="AS39" s="10"/>
       <c r="AT39" s="10"/>
@@ -39740,48 +39305,48 @@
     </row>
     <row r="40" spans="1:1025" customHeight="1" ht="15">
       <c r="A40" s="10"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="50"/>
-      <c r="AO40" s="50"/>
-      <c r="AP40" s="50"/>
-      <c r="AQ40" s="50"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
       <c r="AR40" s="10"/>
       <c r="AS40" s="10"/>
       <c r="AT40" s="10"/>
@@ -40766,48 +40331,48 @@
     </row>
     <row r="41" spans="1:1025" customHeight="1" ht="15">
       <c r="A41" s="10"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="51"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50"/>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="50"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="49"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="49"/>
+      <c r="AQ41" s="49"/>
       <c r="AR41" s="10"/>
       <c r="AS41" s="10"/>
       <c r="AT41" s="10"/>
@@ -41792,48 +41357,48 @@
     </row>
     <row r="42" spans="1:1025" customHeight="1" ht="15">
       <c r="A42" s="10"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="54"/>
-      <c r="AJ42" s="54"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54"/>
       <c r="AR42" s="10"/>
       <c r="AS42" s="10"/>
       <c r="AT42" s="10"/>
@@ -42818,50 +42383,50 @@
     </row>
     <row r="43" spans="1:1025" customHeight="1" ht="15">
       <c r="A43" s="10"/>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="56"/>
-      <c r="AL43" s="56"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="56"/>
-      <c r="AO43" s="56"/>
-      <c r="AP43" s="56"/>
-      <c r="AQ43" s="56"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="55"/>
+      <c r="AP43" s="55"/>
+      <c r="AQ43" s="55"/>
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
       <c r="AT43" s="10"/>
@@ -43846,52 +43411,52 @@
     </row>
     <row r="44" spans="1:1025" customHeight="1" ht="15">
       <c r="A44" s="10"/>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="26" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="25"/>
       <c r="AR44" s="10"/>
       <c r="AS44" s="10"/>
       <c r="AT44" s="10"/>
@@ -44876,50 +44441,50 @@
     </row>
     <row r="45" spans="1:1025" customHeight="1" ht="15">
       <c r="A45" s="10"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58" t="s">
+      <c r="B45" s="56"/>
+      <c r="C45" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="60"/>
-      <c r="AP45" s="60"/>
-      <c r="AQ45" s="60"/>
+      <c r="AK45" s="59"/>
+      <c r="AL45" s="59"/>
+      <c r="AM45" s="59"/>
+      <c r="AN45" s="59"/>
+      <c r="AO45" s="59"/>
+      <c r="AP45" s="59"/>
+      <c r="AQ45" s="59"/>
       <c r="AR45" s="10"/>
       <c r="AS45" s="10"/>
       <c r="AT45" s="10"/>
@@ -45904,50 +45469,50 @@
     </row>
     <row r="46" spans="1:1025" customHeight="1" ht="15">
       <c r="A46" s="10"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="59"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="59"/>
-      <c r="AH46" s="59"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="61"/>
-      <c r="AM46" s="61"/>
-      <c r="AN46" s="61"/>
-      <c r="AO46" s="61"/>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="61"/>
+      <c r="AK46" s="60"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
+      <c r="AQ46" s="60"/>
       <c r="AR46" s="10"/>
       <c r="AS46" s="10"/>
       <c r="AT46" s="10"/>
@@ -46932,50 +46497,50 @@
     </row>
     <row r="47" spans="1:1025" customHeight="1" ht="15">
       <c r="A47" s="10"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63" t="s">
+      <c r="B47" s="61"/>
+      <c r="C47" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="63"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="63"/>
-      <c r="V47" s="63"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="63"/>
-      <c r="Y47" s="63"/>
-      <c r="Z47" s="63"/>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="63"/>
-      <c r="AC47" s="63"/>
-      <c r="AD47" s="63"/>
-      <c r="AE47" s="63"/>
-      <c r="AF47" s="63"/>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="64"/>
-      <c r="AJ47" s="64"/>
-      <c r="AK47" s="65"/>
-      <c r="AL47" s="65"/>
-      <c r="AM47" s="65"/>
-      <c r="AN47" s="65"/>
-      <c r="AO47" s="65"/>
-      <c r="AP47" s="65"/>
-      <c r="AQ47" s="65"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="64"/>
+      <c r="AL47" s="64"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="64"/>
+      <c r="AO47" s="64"/>
+      <c r="AP47" s="64"/>
+      <c r="AQ47" s="64"/>
       <c r="AR47" s="10"/>
       <c r="AS47" s="10"/>
       <c r="AT47" s="10"/>
@@ -47960,50 +47525,50 @@
     </row>
     <row r="48" spans="1:1025" customHeight="1" ht="15">
       <c r="A48" s="10"/>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="66"/>
-      <c r="W48" s="66"/>
-      <c r="X48" s="66"/>
-      <c r="Y48" s="66"/>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="66"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66"/>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="66"/>
-      <c r="AN48" s="66"/>
-      <c r="AO48" s="66"/>
-      <c r="AP48" s="66"/>
-      <c r="AQ48" s="66"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="65"/>
+      <c r="AG48" s="65"/>
+      <c r="AH48" s="65"/>
+      <c r="AI48" s="65"/>
+      <c r="AJ48" s="65"/>
+      <c r="AK48" s="65"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="65"/>
+      <c r="AN48" s="65"/>
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65"/>
       <c r="AR48" s="10"/>
       <c r="AS48" s="10"/>
       <c r="AT48" s="10"/>
@@ -48988,60 +48553,54 @@
     </row>
     <row r="49" spans="1:1025" customHeight="1" ht="15">
       <c r="A49" s="10"/>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="69" t="s">
+      <c r="Q49" s="68"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="69"/>
-      <c r="R49" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
-      <c r="AC49" s="68"/>
-      <c r="AD49" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE49" s="69"/>
-      <c r="AF49" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG49" s="68"/>
-      <c r="AH49" s="68"/>
-      <c r="AI49" s="68"/>
-      <c r="AJ49" s="68"/>
-      <c r="AK49" s="68"/>
-      <c r="AL49" s="68"/>
-      <c r="AM49" s="68"/>
-      <c r="AN49" s="68"/>
-      <c r="AO49" s="68"/>
-      <c r="AP49" s="68"/>
-      <c r="AQ49" s="68"/>
+      <c r="AE49" s="68"/>
+      <c r="AF49" s="67"/>
+      <c r="AG49" s="67"/>
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="67"/>
+      <c r="AP49" s="67"/>
+      <c r="AQ49" s="67"/>
       <c r="AR49" s="10"/>
       <c r="AS49" s="10"/>
       <c r="AT49" s="10"/>
@@ -50026,48 +49585,48 @@
     </row>
     <row r="50" spans="1:1025" customHeight="1" ht="15">
       <c r="A50" s="10"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="71"/>
-      <c r="AC50" s="71"/>
-      <c r="AD50" s="72"/>
-      <c r="AE50" s="72"/>
-      <c r="AF50" s="72"/>
-      <c r="AG50" s="72"/>
-      <c r="AH50" s="72"/>
-      <c r="AI50" s="72"/>
-      <c r="AJ50" s="72"/>
-      <c r="AK50" s="72"/>
-      <c r="AL50" s="72"/>
-      <c r="AM50" s="72"/>
-      <c r="AN50" s="72"/>
-      <c r="AO50" s="72"/>
-      <c r="AP50" s="72"/>
-      <c r="AQ50" s="72"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
+      <c r="V50" s="70"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="70"/>
+      <c r="Y50" s="70"/>
+      <c r="Z50" s="70"/>
+      <c r="AA50" s="70"/>
+      <c r="AB50" s="70"/>
+      <c r="AC50" s="70"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="71"/>
+      <c r="AI50" s="71"/>
+      <c r="AJ50" s="71"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="71"/>
+      <c r="AN50" s="71"/>
+      <c r="AO50" s="71"/>
+      <c r="AP50" s="71"/>
+      <c r="AQ50" s="71"/>
       <c r="AR50" s="10"/>
       <c r="AS50" s="10"/>
       <c r="AT50" s="10"/>
@@ -51052,48 +50611,48 @@
     </row>
     <row r="51" spans="1:1025" customHeight="1" ht="15">
       <c r="A51" s="10"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="72"/>
-      <c r="AG51" s="72"/>
-      <c r="AH51" s="72"/>
-      <c r="AI51" s="72"/>
-      <c r="AJ51" s="72"/>
-      <c r="AK51" s="72"/>
-      <c r="AL51" s="72"/>
-      <c r="AM51" s="72"/>
-      <c r="AN51" s="72"/>
-      <c r="AO51" s="72"/>
-      <c r="AP51" s="72"/>
-      <c r="AQ51" s="72"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+      <c r="T51" s="70"/>
+      <c r="U51" s="70"/>
+      <c r="V51" s="70"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="70"/>
+      <c r="Y51" s="70"/>
+      <c r="Z51" s="70"/>
+      <c r="AA51" s="70"/>
+      <c r="AB51" s="70"/>
+      <c r="AC51" s="70"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="71"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
+      <c r="AH51" s="71"/>
+      <c r="AI51" s="71"/>
+      <c r="AJ51" s="71"/>
+      <c r="AK51" s="71"/>
+      <c r="AL51" s="71"/>
+      <c r="AM51" s="71"/>
+      <c r="AN51" s="71"/>
+      <c r="AO51" s="71"/>
+      <c r="AP51" s="71"/>
+      <c r="AQ51" s="71"/>
       <c r="AR51" s="10"/>
       <c r="AS51" s="10"/>
       <c r="AT51" s="10"/>
@@ -52078,48 +51637,48 @@
     </row>
     <row r="52" spans="1:1025" customHeight="1" ht="15">
       <c r="A52" s="10"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
-      <c r="AA52" s="71"/>
-      <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="72"/>
-      <c r="AE52" s="72"/>
-      <c r="AF52" s="72"/>
-      <c r="AG52" s="72"/>
-      <c r="AH52" s="72"/>
-      <c r="AI52" s="72"/>
-      <c r="AJ52" s="72"/>
-      <c r="AK52" s="72"/>
-      <c r="AL52" s="72"/>
-      <c r="AM52" s="72"/>
-      <c r="AN52" s="72"/>
-      <c r="AO52" s="72"/>
-      <c r="AP52" s="72"/>
-      <c r="AQ52" s="72"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="70"/>
+      <c r="Z52" s="70"/>
+      <c r="AA52" s="70"/>
+      <c r="AB52" s="70"/>
+      <c r="AC52" s="70"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="71"/>
+      <c r="AH52" s="71"/>
+      <c r="AI52" s="71"/>
+      <c r="AJ52" s="71"/>
+      <c r="AK52" s="71"/>
+      <c r="AL52" s="71"/>
+      <c r="AM52" s="71"/>
+      <c r="AN52" s="71"/>
+      <c r="AO52" s="71"/>
+      <c r="AP52" s="71"/>
+      <c r="AQ52" s="71"/>
       <c r="AR52" s="10"/>
       <c r="AS52" s="10"/>
       <c r="AT52" s="10"/>
@@ -53104,48 +52663,48 @@
     </row>
     <row r="53" spans="1:1025" customHeight="1" ht="15">
       <c r="A53" s="10"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="71"/>
-      <c r="Y53" s="71"/>
-      <c r="Z53" s="71"/>
-      <c r="AA53" s="71"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="71"/>
-      <c r="AD53" s="72"/>
-      <c r="AE53" s="72"/>
-      <c r="AF53" s="72"/>
-      <c r="AG53" s="72"/>
-      <c r="AH53" s="72"/>
-      <c r="AI53" s="72"/>
-      <c r="AJ53" s="72"/>
-      <c r="AK53" s="72"/>
-      <c r="AL53" s="72"/>
-      <c r="AM53" s="72"/>
-      <c r="AN53" s="72"/>
-      <c r="AO53" s="72"/>
-      <c r="AP53" s="72"/>
-      <c r="AQ53" s="72"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="71"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="71"/>
+      <c r="AH53" s="71"/>
+      <c r="AI53" s="71"/>
+      <c r="AJ53" s="71"/>
+      <c r="AK53" s="71"/>
+      <c r="AL53" s="71"/>
+      <c r="AM53" s="71"/>
+      <c r="AN53" s="71"/>
+      <c r="AO53" s="71"/>
+      <c r="AP53" s="71"/>
+      <c r="AQ53" s="71"/>
       <c r="AR53" s="10"/>
       <c r="AS53" s="10"/>
       <c r="AT53" s="10"/>
@@ -54130,48 +53689,48 @@
     </row>
     <row r="54" spans="1:1025" customHeight="1" ht="15">
       <c r="A54" s="10"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="71"/>
-      <c r="Y54" s="71"/>
-      <c r="Z54" s="71"/>
-      <c r="AA54" s="71"/>
-      <c r="AB54" s="71"/>
-      <c r="AC54" s="71"/>
-      <c r="AD54" s="72"/>
-      <c r="AE54" s="72"/>
-      <c r="AF54" s="72"/>
-      <c r="AG54" s="72"/>
-      <c r="AH54" s="72"/>
-      <c r="AI54" s="72"/>
-      <c r="AJ54" s="72"/>
-      <c r="AK54" s="72"/>
-      <c r="AL54" s="72"/>
-      <c r="AM54" s="72"/>
-      <c r="AN54" s="72"/>
-      <c r="AO54" s="72"/>
-      <c r="AP54" s="72"/>
-      <c r="AQ54" s="72"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
+      <c r="AH54" s="71"/>
+      <c r="AI54" s="71"/>
+      <c r="AJ54" s="71"/>
+      <c r="AK54" s="71"/>
+      <c r="AL54" s="71"/>
+      <c r="AM54" s="71"/>
+      <c r="AN54" s="71"/>
+      <c r="AO54" s="71"/>
+      <c r="AP54" s="71"/>
+      <c r="AQ54" s="71"/>
       <c r="AR54" s="10"/>
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
@@ -55156,48 +54715,48 @@
     </row>
     <row r="55" spans="1:1025" customHeight="1" ht="15">
       <c r="A55"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="71"/>
-      <c r="Y55" s="71"/>
-      <c r="Z55" s="71"/>
-      <c r="AA55" s="71"/>
-      <c r="AB55" s="71"/>
-      <c r="AC55" s="71"/>
-      <c r="AD55" s="72"/>
-      <c r="AE55" s="72"/>
-      <c r="AF55" s="72"/>
-      <c r="AG55" s="72"/>
-      <c r="AH55" s="72"/>
-      <c r="AI55" s="72"/>
-      <c r="AJ55" s="72"/>
-      <c r="AK55" s="72"/>
-      <c r="AL55" s="72"/>
-      <c r="AM55" s="72"/>
-      <c r="AN55" s="72"/>
-      <c r="AO55" s="72"/>
-      <c r="AP55" s="72"/>
-      <c r="AQ55" s="72"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="70"/>
+      <c r="Z55" s="70"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="70"/>
+      <c r="AC55" s="70"/>
+      <c r="AD55" s="71"/>
+      <c r="AE55" s="71"/>
+      <c r="AF55" s="71"/>
+      <c r="AG55" s="71"/>
+      <c r="AH55" s="71"/>
+      <c r="AI55" s="71"/>
+      <c r="AJ55" s="71"/>
+      <c r="AK55" s="71"/>
+      <c r="AL55" s="71"/>
+      <c r="AM55" s="71"/>
+      <c r="AN55" s="71"/>
+      <c r="AO55" s="71"/>
+      <c r="AP55" s="71"/>
+      <c r="AQ55" s="71"/>
       <c r="AR55"/>
       <c r="AS55"/>
       <c r="AT55"/>
@@ -56182,48 +55741,48 @@
     </row>
     <row r="56" spans="1:1025" customHeight="1" ht="15">
       <c r="A56"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="71"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="72"/>
-      <c r="AE56" s="72"/>
-      <c r="AF56" s="72"/>
-      <c r="AG56" s="72"/>
-      <c r="AH56" s="72"/>
-      <c r="AI56" s="72"/>
-      <c r="AJ56" s="72"/>
-      <c r="AK56" s="72"/>
-      <c r="AL56" s="72"/>
-      <c r="AM56" s="72"/>
-      <c r="AN56" s="72"/>
-      <c r="AO56" s="72"/>
-      <c r="AP56" s="72"/>
-      <c r="AQ56" s="72"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="70"/>
+      <c r="Y56" s="70"/>
+      <c r="Z56" s="70"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70"/>
+      <c r="AC56" s="70"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="71"/>
+      <c r="AH56" s="71"/>
+      <c r="AI56" s="71"/>
+      <c r="AJ56" s="71"/>
+      <c r="AK56" s="71"/>
+      <c r="AL56" s="71"/>
+      <c r="AM56" s="71"/>
+      <c r="AN56" s="71"/>
+      <c r="AO56" s="71"/>
+      <c r="AP56" s="71"/>
+      <c r="AQ56" s="71"/>
       <c r="AR56"/>
       <c r="AS56"/>
       <c r="AT56"/>
@@ -57208,48 +56767,48 @@
     </row>
     <row r="57" spans="1:1025" customHeight="1" ht="15">
       <c r="A57"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="72"/>
-      <c r="AE57" s="72"/>
-      <c r="AF57" s="72"/>
-      <c r="AG57" s="72"/>
-      <c r="AH57" s="72"/>
-      <c r="AI57" s="72"/>
-      <c r="AJ57" s="72"/>
-      <c r="AK57" s="72"/>
-      <c r="AL57" s="72"/>
-      <c r="AM57" s="72"/>
-      <c r="AN57" s="72"/>
-      <c r="AO57" s="72"/>
-      <c r="AP57" s="72"/>
-      <c r="AQ57" s="72"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70"/>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="71"/>
+      <c r="AH57" s="71"/>
+      <c r="AI57" s="71"/>
+      <c r="AJ57" s="71"/>
+      <c r="AK57" s="71"/>
+      <c r="AL57" s="71"/>
+      <c r="AM57" s="71"/>
+      <c r="AN57" s="71"/>
+      <c r="AO57" s="71"/>
+      <c r="AP57" s="71"/>
+      <c r="AQ57" s="71"/>
       <c r="AR57"/>
       <c r="AS57"/>
       <c r="AT57"/>
@@ -58234,48 +57793,48 @@
     </row>
     <row r="58" spans="1:1025" customHeight="1" ht="15">
       <c r="A58"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="72"/>
-      <c r="AE58" s="72"/>
-      <c r="AF58" s="72"/>
-      <c r="AG58" s="72"/>
-      <c r="AH58" s="72"/>
-      <c r="AI58" s="72"/>
-      <c r="AJ58" s="72"/>
-      <c r="AK58" s="72"/>
-      <c r="AL58" s="72"/>
-      <c r="AM58" s="72"/>
-      <c r="AN58" s="72"/>
-      <c r="AO58" s="72"/>
-      <c r="AP58" s="72"/>
-      <c r="AQ58" s="72"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="70"/>
+      <c r="Z58" s="70"/>
+      <c r="AA58" s="70"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="70"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="71"/>
+      <c r="AH58" s="71"/>
+      <c r="AI58" s="71"/>
+      <c r="AJ58" s="71"/>
+      <c r="AK58" s="71"/>
+      <c r="AL58" s="71"/>
+      <c r="AM58" s="71"/>
+      <c r="AN58" s="71"/>
+      <c r="AO58" s="71"/>
+      <c r="AP58" s="71"/>
+      <c r="AQ58" s="71"/>
       <c r="AR58"/>
       <c r="AS58"/>
       <c r="AT58"/>
@@ -59260,48 +58819,48 @@
     </row>
     <row r="59" spans="1:1025" customHeight="1" ht="15">
       <c r="A59"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="72"/>
-      <c r="AE59" s="72"/>
-      <c r="AF59" s="72"/>
-      <c r="AG59" s="72"/>
-      <c r="AH59" s="72"/>
-      <c r="AI59" s="72"/>
-      <c r="AJ59" s="72"/>
-      <c r="AK59" s="72"/>
-      <c r="AL59" s="72"/>
-      <c r="AM59" s="72"/>
-      <c r="AN59" s="72"/>
-      <c r="AO59" s="72"/>
-      <c r="AP59" s="72"/>
-      <c r="AQ59" s="72"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="70"/>
+      <c r="Y59" s="70"/>
+      <c r="Z59" s="70"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="70"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
+      <c r="AH59" s="71"/>
+      <c r="AI59" s="71"/>
+      <c r="AJ59" s="71"/>
+      <c r="AK59" s="71"/>
+      <c r="AL59" s="71"/>
+      <c r="AM59" s="71"/>
+      <c r="AN59" s="71"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
       <c r="AR59"/>
       <c r="AS59"/>
       <c r="AT59"/>
@@ -60285,93 +59844,93 @@
       <c r="AMJ59"/>
     </row>
     <row r="60" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="71"/>
-      <c r="AC60" s="71"/>
-      <c r="AD60" s="72"/>
-      <c r="AE60" s="72"/>
-      <c r="AF60" s="72"/>
-      <c r="AG60" s="72"/>
-      <c r="AH60" s="72"/>
-      <c r="AI60" s="72"/>
-      <c r="AJ60" s="72"/>
-      <c r="AK60" s="72"/>
-      <c r="AL60" s="72"/>
-      <c r="AM60" s="72"/>
-      <c r="AN60" s="72"/>
-      <c r="AO60" s="72"/>
-      <c r="AP60" s="72"/>
-      <c r="AQ60" s="72"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="71"/>
+      <c r="AH60" s="71"/>
+      <c r="AI60" s="71"/>
+      <c r="AJ60" s="71"/>
+      <c r="AK60" s="71"/>
+      <c r="AL60" s="71"/>
+      <c r="AM60" s="71"/>
+      <c r="AN60" s="71"/>
+      <c r="AO60" s="71"/>
+      <c r="AP60" s="71"/>
+      <c r="AQ60" s="71"/>
     </row>
     <row r="61" spans="1:1025" customHeight="1" ht="15">
       <c r="A61"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="72"/>
-      <c r="AF61" s="72"/>
-      <c r="AG61" s="72"/>
-      <c r="AH61" s="72"/>
-      <c r="AI61" s="72"/>
-      <c r="AJ61" s="72"/>
-      <c r="AK61" s="72"/>
-      <c r="AL61" s="72"/>
-      <c r="AM61" s="72"/>
-      <c r="AN61" s="72"/>
-      <c r="AO61" s="72"/>
-      <c r="AP61" s="72"/>
-      <c r="AQ61" s="72"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="70"/>
+      <c r="Y61" s="70"/>
+      <c r="Z61" s="70"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="70"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="71"/>
+      <c r="AJ61" s="71"/>
+      <c r="AK61" s="71"/>
+      <c r="AL61" s="71"/>
+      <c r="AM61" s="71"/>
+      <c r="AN61" s="71"/>
+      <c r="AO61" s="71"/>
+      <c r="AP61" s="71"/>
+      <c r="AQ61" s="71"/>
       <c r="AR61"/>
       <c r="AS61"/>
       <c r="AT61"/>
@@ -61356,48 +60915,48 @@
     </row>
     <row r="62" spans="1:1025" customHeight="1" ht="15">
       <c r="A62"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="72"/>
-      <c r="AE62" s="72"/>
-      <c r="AF62" s="72"/>
-      <c r="AG62" s="72"/>
-      <c r="AH62" s="72"/>
-      <c r="AI62" s="72"/>
-      <c r="AJ62" s="72"/>
-      <c r="AK62" s="72"/>
-      <c r="AL62" s="72"/>
-      <c r="AM62" s="72"/>
-      <c r="AN62" s="72"/>
-      <c r="AO62" s="72"/>
-      <c r="AP62" s="72"/>
-      <c r="AQ62" s="72"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
+      <c r="AH62" s="71"/>
+      <c r="AI62" s="71"/>
+      <c r="AJ62" s="71"/>
+      <c r="AK62" s="71"/>
+      <c r="AL62" s="71"/>
+      <c r="AM62" s="71"/>
+      <c r="AN62" s="71"/>
+      <c r="AO62" s="71"/>
+      <c r="AP62" s="71"/>
+      <c r="AQ62" s="71"/>
       <c r="AR62"/>
       <c r="AS62"/>
       <c r="AT62"/>
@@ -62382,48 +61941,9 @@
     </row>
     <row r="63" spans="1:1025" customHeight="1" ht="15">
       <c r="A63"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
+      <c r="B63" s="72"/>
       <c r="AP63" s="10"/>
-      <c r="AQ63" s="74"/>
+      <c r="AQ63" s="73"/>
       <c r="AR63"/>
       <c r="AS63"/>
       <c r="AT63"/>
@@ -63408,60 +62928,54 @@
     </row>
     <row r="64" spans="1:1025" customHeight="1" ht="15">
       <c r="A64"/>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68" t="s">
-        <v>44</v>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="68" t="s">
+        <v>39</v>
       </c>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="69" t="s">
+      <c r="Q64" s="68"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="67"/>
+      <c r="AD64" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="S64" s="68"/>
-      <c r="T64" s="68"/>
-      <c r="U64" s="68"/>
-      <c r="V64" s="68"/>
-      <c r="W64" s="68"/>
-      <c r="X64" s="68"/>
-      <c r="Y64" s="68"/>
-      <c r="Z64" s="68"/>
-      <c r="AA64" s="68"/>
-      <c r="AB64" s="68"/>
-      <c r="AC64" s="68"/>
-      <c r="AD64" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE64" s="69"/>
-      <c r="AF64" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG64" s="75"/>
-      <c r="AH64" s="75"/>
-      <c r="AI64" s="75"/>
-      <c r="AJ64" s="75"/>
-      <c r="AK64" s="75"/>
-      <c r="AL64" s="75"/>
-      <c r="AM64" s="75"/>
-      <c r="AN64" s="75"/>
-      <c r="AO64" s="75"/>
-      <c r="AP64" s="75"/>
-      <c r="AQ64" s="75"/>
+      <c r="AE64" s="68"/>
+      <c r="AF64" s="74"/>
+      <c r="AG64" s="74"/>
+      <c r="AH64" s="74"/>
+      <c r="AI64" s="74"/>
+      <c r="AJ64" s="74"/>
+      <c r="AK64" s="74"/>
+      <c r="AL64" s="74"/>
+      <c r="AM64" s="74"/>
+      <c r="AN64" s="74"/>
+      <c r="AO64" s="74"/>
+      <c r="AP64" s="74"/>
+      <c r="AQ64" s="74"/>
       <c r="AR64"/>
       <c r="AS64"/>
       <c r="AT64"/>
@@ -64446,48 +63960,48 @@
     </row>
     <row r="65" spans="1:1025" customHeight="1" ht="15">
       <c r="A65"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
-      <c r="Z65" s="71"/>
-      <c r="AA65" s="71"/>
-      <c r="AB65" s="71"/>
-      <c r="AC65" s="71"/>
-      <c r="AD65" s="72"/>
-      <c r="AE65" s="72"/>
-      <c r="AF65" s="72"/>
-      <c r="AG65" s="72"/>
-      <c r="AH65" s="72"/>
-      <c r="AI65" s="72"/>
-      <c r="AJ65" s="72"/>
-      <c r="AK65" s="72"/>
-      <c r="AL65" s="72"/>
-      <c r="AM65" s="72"/>
-      <c r="AN65" s="72"/>
-      <c r="AO65" s="72"/>
-      <c r="AP65" s="72"/>
-      <c r="AQ65" s="72"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="70"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="71"/>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="71"/>
+      <c r="AK65" s="71"/>
+      <c r="AL65" s="71"/>
+      <c r="AM65" s="71"/>
+      <c r="AN65" s="71"/>
+      <c r="AO65" s="71"/>
+      <c r="AP65" s="71"/>
+      <c r="AQ65" s="71"/>
       <c r="AR65"/>
       <c r="AS65"/>
       <c r="AT65"/>
@@ -65472,48 +64986,48 @@
     </row>
     <row r="66" spans="1:1025" customHeight="1" ht="15">
       <c r="A66"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="71"/>
-      <c r="Y66" s="71"/>
-      <c r="Z66" s="71"/>
-      <c r="AA66" s="71"/>
-      <c r="AB66" s="71"/>
-      <c r="AC66" s="71"/>
-      <c r="AD66" s="72"/>
-      <c r="AE66" s="72"/>
-      <c r="AF66" s="72"/>
-      <c r="AG66" s="72"/>
-      <c r="AH66" s="72"/>
-      <c r="AI66" s="72"/>
-      <c r="AJ66" s="72"/>
-      <c r="AK66" s="72"/>
-      <c r="AL66" s="72"/>
-      <c r="AM66" s="72"/>
-      <c r="AN66" s="72"/>
-      <c r="AO66" s="72"/>
-      <c r="AP66" s="72"/>
-      <c r="AQ66" s="72"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="70"/>
+      <c r="Y66" s="70"/>
+      <c r="Z66" s="70"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
+      <c r="AC66" s="70"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
+      <c r="AH66" s="71"/>
+      <c r="AI66" s="71"/>
+      <c r="AJ66" s="71"/>
+      <c r="AK66" s="71"/>
+      <c r="AL66" s="71"/>
+      <c r="AM66" s="71"/>
+      <c r="AN66" s="71"/>
+      <c r="AO66" s="71"/>
+      <c r="AP66" s="71"/>
+      <c r="AQ66" s="71"/>
       <c r="AR66"/>
       <c r="AS66"/>
       <c r="AT66"/>
@@ -66498,48 +66012,48 @@
     </row>
     <row r="67" spans="1:1025" customHeight="1" ht="15">
       <c r="A67"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="70"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
-      <c r="AA67" s="71"/>
-      <c r="AB67" s="71"/>
-      <c r="AC67" s="71"/>
-      <c r="AD67" s="72"/>
-      <c r="AE67" s="72"/>
-      <c r="AF67" s="72"/>
-      <c r="AG67" s="72"/>
-      <c r="AH67" s="72"/>
-      <c r="AI67" s="72"/>
-      <c r="AJ67" s="72"/>
-      <c r="AK67" s="72"/>
-      <c r="AL67" s="72"/>
-      <c r="AM67" s="72"/>
-      <c r="AN67" s="72"/>
-      <c r="AO67" s="72"/>
-      <c r="AP67" s="72"/>
-      <c r="AQ67" s="72"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="70"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="70"/>
+      <c r="W67" s="70"/>
+      <c r="X67" s="70"/>
+      <c r="Y67" s="70"/>
+      <c r="Z67" s="70"/>
+      <c r="AA67" s="70"/>
+      <c r="AB67" s="70"/>
+      <c r="AC67" s="70"/>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="71"/>
+      <c r="AF67" s="71"/>
+      <c r="AG67" s="71"/>
+      <c r="AH67" s="71"/>
+      <c r="AI67" s="71"/>
+      <c r="AJ67" s="71"/>
+      <c r="AK67" s="71"/>
+      <c r="AL67" s="71"/>
+      <c r="AM67" s="71"/>
+      <c r="AN67" s="71"/>
+      <c r="AO67" s="71"/>
+      <c r="AP67" s="71"/>
+      <c r="AQ67" s="71"/>
       <c r="AR67"/>
       <c r="AS67"/>
       <c r="AT67"/>
@@ -67524,48 +67038,48 @@
     </row>
     <row r="68" spans="1:1025" customHeight="1" ht="15">
       <c r="A68"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="70"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="71"/>
-      <c r="Y68" s="71"/>
-      <c r="Z68" s="71"/>
-      <c r="AA68" s="71"/>
-      <c r="AB68" s="71"/>
-      <c r="AC68" s="71"/>
-      <c r="AD68" s="72"/>
-      <c r="AE68" s="72"/>
-      <c r="AF68" s="72"/>
-      <c r="AG68" s="72"/>
-      <c r="AH68" s="72"/>
-      <c r="AI68" s="72"/>
-      <c r="AJ68" s="72"/>
-      <c r="AK68" s="72"/>
-      <c r="AL68" s="72"/>
-      <c r="AM68" s="72"/>
-      <c r="AN68" s="72"/>
-      <c r="AO68" s="72"/>
-      <c r="AP68" s="72"/>
-      <c r="AQ68" s="72"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="70"/>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="70"/>
+      <c r="Z68" s="70"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="70"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="71"/>
+      <c r="AH68" s="71"/>
+      <c r="AI68" s="71"/>
+      <c r="AJ68" s="71"/>
+      <c r="AK68" s="71"/>
+      <c r="AL68" s="71"/>
+      <c r="AM68" s="71"/>
+      <c r="AN68" s="71"/>
+      <c r="AO68" s="71"/>
+      <c r="AP68" s="71"/>
+      <c r="AQ68" s="71"/>
       <c r="AR68"/>
       <c r="AS68"/>
       <c r="AT68"/>
@@ -68550,48 +68064,48 @@
     </row>
     <row r="69" spans="1:1025" customHeight="1" ht="15">
       <c r="A69"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="70"/>
-      <c r="O69" s="70"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="71"/>
-      <c r="U69" s="71"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="71"/>
-      <c r="X69" s="71"/>
-      <c r="Y69" s="71"/>
-      <c r="Z69" s="71"/>
-      <c r="AA69" s="71"/>
-      <c r="AB69" s="71"/>
-      <c r="AC69" s="71"/>
-      <c r="AD69" s="72"/>
-      <c r="AE69" s="72"/>
-      <c r="AF69" s="72"/>
-      <c r="AG69" s="72"/>
-      <c r="AH69" s="72"/>
-      <c r="AI69" s="72"/>
-      <c r="AJ69" s="72"/>
-      <c r="AK69" s="72"/>
-      <c r="AL69" s="72"/>
-      <c r="AM69" s="72"/>
-      <c r="AN69" s="72"/>
-      <c r="AO69" s="72"/>
-      <c r="AP69" s="72"/>
-      <c r="AQ69" s="72"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
+      <c r="AC69" s="70"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
+      <c r="AF69" s="71"/>
+      <c r="AG69" s="71"/>
+      <c r="AH69" s="71"/>
+      <c r="AI69" s="71"/>
+      <c r="AJ69" s="71"/>
+      <c r="AK69" s="71"/>
+      <c r="AL69" s="71"/>
+      <c r="AM69" s="71"/>
+      <c r="AN69" s="71"/>
+      <c r="AO69" s="71"/>
+      <c r="AP69" s="71"/>
+      <c r="AQ69" s="71"/>
       <c r="AR69"/>
       <c r="AS69"/>
       <c r="AT69"/>
@@ -69576,48 +69090,48 @@
     </row>
     <row r="70" spans="1:1025" customHeight="1" ht="15">
       <c r="A70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="L70" s="70"/>
-      <c r="M70" s="70"/>
-      <c r="N70" s="70"/>
-      <c r="O70" s="70"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="71"/>
-      <c r="X70" s="71"/>
-      <c r="Y70" s="71"/>
-      <c r="Z70" s="71"/>
-      <c r="AA70" s="71"/>
-      <c r="AB70" s="71"/>
-      <c r="AC70" s="71"/>
-      <c r="AD70" s="72"/>
-      <c r="AE70" s="72"/>
-      <c r="AF70" s="72"/>
-      <c r="AG70" s="72"/>
-      <c r="AH70" s="72"/>
-      <c r="AI70" s="72"/>
-      <c r="AJ70" s="72"/>
-      <c r="AK70" s="72"/>
-      <c r="AL70" s="72"/>
-      <c r="AM70" s="72"/>
-      <c r="AN70" s="72"/>
-      <c r="AO70" s="72"/>
-      <c r="AP70" s="72"/>
-      <c r="AQ70" s="72"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="70"/>
+      <c r="V70" s="70"/>
+      <c r="W70" s="70"/>
+      <c r="X70" s="70"/>
+      <c r="Y70" s="70"/>
+      <c r="Z70" s="70"/>
+      <c r="AA70" s="70"/>
+      <c r="AB70" s="70"/>
+      <c r="AC70" s="70"/>
+      <c r="AD70" s="71"/>
+      <c r="AE70" s="71"/>
+      <c r="AF70" s="71"/>
+      <c r="AG70" s="71"/>
+      <c r="AH70" s="71"/>
+      <c r="AI70" s="71"/>
+      <c r="AJ70" s="71"/>
+      <c r="AK70" s="71"/>
+      <c r="AL70" s="71"/>
+      <c r="AM70" s="71"/>
+      <c r="AN70" s="71"/>
+      <c r="AO70" s="71"/>
+      <c r="AP70" s="71"/>
+      <c r="AQ70" s="71"/>
       <c r="AR70"/>
       <c r="AS70"/>
       <c r="AT70"/>
@@ -70602,48 +70116,48 @@
     </row>
     <row r="71" spans="1:1025" customHeight="1" ht="15">
       <c r="A71"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="70"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="71"/>
-      <c r="Y71" s="71"/>
-      <c r="Z71" s="71"/>
-      <c r="AA71" s="71"/>
-      <c r="AB71" s="71"/>
-      <c r="AC71" s="71"/>
-      <c r="AD71" s="72"/>
-      <c r="AE71" s="72"/>
-      <c r="AF71" s="72"/>
-      <c r="AG71" s="72"/>
-      <c r="AH71" s="72"/>
-      <c r="AI71" s="72"/>
-      <c r="AJ71" s="72"/>
-      <c r="AK71" s="72"/>
-      <c r="AL71" s="72"/>
-      <c r="AM71" s="72"/>
-      <c r="AN71" s="72"/>
-      <c r="AO71" s="72"/>
-      <c r="AP71" s="72"/>
-      <c r="AQ71" s="72"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
+      <c r="S71" s="70"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+      <c r="W71" s="70"/>
+      <c r="X71" s="70"/>
+      <c r="Y71" s="70"/>
+      <c r="Z71" s="70"/>
+      <c r="AA71" s="70"/>
+      <c r="AB71" s="70"/>
+      <c r="AC71" s="70"/>
+      <c r="AD71" s="71"/>
+      <c r="AE71" s="71"/>
+      <c r="AF71" s="71"/>
+      <c r="AG71" s="71"/>
+      <c r="AH71" s="71"/>
+      <c r="AI71" s="71"/>
+      <c r="AJ71" s="71"/>
+      <c r="AK71" s="71"/>
+      <c r="AL71" s="71"/>
+      <c r="AM71" s="71"/>
+      <c r="AN71" s="71"/>
+      <c r="AO71" s="71"/>
+      <c r="AP71" s="71"/>
+      <c r="AQ71" s="71"/>
       <c r="AR71"/>
       <c r="AS71"/>
       <c r="AT71"/>
@@ -71628,48 +71142,48 @@
     </row>
     <row r="72" spans="1:1025" customHeight="1" ht="15">
       <c r="A72"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="70"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="71"/>
-      <c r="AC72" s="71"/>
-      <c r="AD72" s="72"/>
-      <c r="AE72" s="72"/>
-      <c r="AF72" s="72"/>
-      <c r="AG72" s="72"/>
-      <c r="AH72" s="72"/>
-      <c r="AI72" s="72"/>
-      <c r="AJ72" s="72"/>
-      <c r="AK72" s="72"/>
-      <c r="AL72" s="72"/>
-      <c r="AM72" s="72"/>
-      <c r="AN72" s="72"/>
-      <c r="AO72" s="72"/>
-      <c r="AP72" s="72"/>
-      <c r="AQ72" s="72"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="70"/>
+      <c r="R72" s="70"/>
+      <c r="S72" s="70"/>
+      <c r="T72" s="70"/>
+      <c r="U72" s="70"/>
+      <c r="V72" s="70"/>
+      <c r="W72" s="70"/>
+      <c r="X72" s="70"/>
+      <c r="Y72" s="70"/>
+      <c r="Z72" s="70"/>
+      <c r="AA72" s="70"/>
+      <c r="AB72" s="70"/>
+      <c r="AC72" s="70"/>
+      <c r="AD72" s="71"/>
+      <c r="AE72" s="71"/>
+      <c r="AF72" s="71"/>
+      <c r="AG72" s="71"/>
+      <c r="AH72" s="71"/>
+      <c r="AI72" s="71"/>
+      <c r="AJ72" s="71"/>
+      <c r="AK72" s="71"/>
+      <c r="AL72" s="71"/>
+      <c r="AM72" s="71"/>
+      <c r="AN72" s="71"/>
+      <c r="AO72" s="71"/>
+      <c r="AP72" s="71"/>
+      <c r="AQ72" s="71"/>
       <c r="AR72"/>
       <c r="AS72"/>
       <c r="AT72"/>
@@ -72654,48 +72168,48 @@
     </row>
     <row r="73" spans="1:1025" customHeight="1" ht="15">
       <c r="A73"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="71"/>
-      <c r="X73" s="71"/>
-      <c r="Y73" s="71"/>
-      <c r="Z73" s="71"/>
-      <c r="AA73" s="71"/>
-      <c r="AB73" s="71"/>
-      <c r="AC73" s="71"/>
-      <c r="AD73" s="72"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
-      <c r="AH73" s="72"/>
-      <c r="AI73" s="72"/>
-      <c r="AJ73" s="72"/>
-      <c r="AK73" s="72"/>
-      <c r="AL73" s="72"/>
-      <c r="AM73" s="72"/>
-      <c r="AN73" s="72"/>
-      <c r="AO73" s="72"/>
-      <c r="AP73" s="72"/>
-      <c r="AQ73" s="72"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="70"/>
+      <c r="T73" s="70"/>
+      <c r="U73" s="70"/>
+      <c r="V73" s="70"/>
+      <c r="W73" s="70"/>
+      <c r="X73" s="70"/>
+      <c r="Y73" s="70"/>
+      <c r="Z73" s="70"/>
+      <c r="AA73" s="70"/>
+      <c r="AB73" s="70"/>
+      <c r="AC73" s="70"/>
+      <c r="AD73" s="71"/>
+      <c r="AE73" s="71"/>
+      <c r="AF73" s="71"/>
+      <c r="AG73" s="71"/>
+      <c r="AH73" s="71"/>
+      <c r="AI73" s="71"/>
+      <c r="AJ73" s="71"/>
+      <c r="AK73" s="71"/>
+      <c r="AL73" s="71"/>
+      <c r="AM73" s="71"/>
+      <c r="AN73" s="71"/>
+      <c r="AO73" s="71"/>
+      <c r="AP73" s="71"/>
+      <c r="AQ73" s="71"/>
       <c r="AR73"/>
       <c r="AS73"/>
       <c r="AT73"/>
@@ -73680,48 +73194,48 @@
     </row>
     <row r="74" spans="1:1025" customHeight="1" ht="15">
       <c r="A74"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
-      <c r="O74" s="70"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="71"/>
-      <c r="AD74" s="72"/>
-      <c r="AE74" s="72"/>
-      <c r="AF74" s="72"/>
-      <c r="AG74" s="72"/>
-      <c r="AH74" s="72"/>
-      <c r="AI74" s="72"/>
-      <c r="AJ74" s="72"/>
-      <c r="AK74" s="72"/>
-      <c r="AL74" s="72"/>
-      <c r="AM74" s="72"/>
-      <c r="AN74" s="72"/>
-      <c r="AO74" s="72"/>
-      <c r="AP74" s="72"/>
-      <c r="AQ74" s="72"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="70"/>
+      <c r="Q74" s="70"/>
+      <c r="R74" s="70"/>
+      <c r="S74" s="70"/>
+      <c r="T74" s="70"/>
+      <c r="U74" s="70"/>
+      <c r="V74" s="70"/>
+      <c r="W74" s="70"/>
+      <c r="X74" s="70"/>
+      <c r="Y74" s="70"/>
+      <c r="Z74" s="70"/>
+      <c r="AA74" s="70"/>
+      <c r="AB74" s="70"/>
+      <c r="AC74" s="70"/>
+      <c r="AD74" s="71"/>
+      <c r="AE74" s="71"/>
+      <c r="AF74" s="71"/>
+      <c r="AG74" s="71"/>
+      <c r="AH74" s="71"/>
+      <c r="AI74" s="71"/>
+      <c r="AJ74" s="71"/>
+      <c r="AK74" s="71"/>
+      <c r="AL74" s="71"/>
+      <c r="AM74" s="71"/>
+      <c r="AN74" s="71"/>
+      <c r="AO74" s="71"/>
+      <c r="AP74" s="71"/>
+      <c r="AQ74" s="71"/>
       <c r="AR74"/>
       <c r="AS74"/>
       <c r="AT74"/>
@@ -74706,48 +74220,48 @@
     </row>
     <row r="75" spans="1:1025" customHeight="1" ht="15">
       <c r="A75"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="71"/>
-      <c r="W75" s="71"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="71"/>
-      <c r="AA75" s="71"/>
-      <c r="AB75" s="71"/>
-      <c r="AC75" s="71"/>
-      <c r="AD75" s="72"/>
-      <c r="AE75" s="72"/>
-      <c r="AF75" s="72"/>
-      <c r="AG75" s="72"/>
-      <c r="AH75" s="72"/>
-      <c r="AI75" s="72"/>
-      <c r="AJ75" s="72"/>
-      <c r="AK75" s="72"/>
-      <c r="AL75" s="72"/>
-      <c r="AM75" s="72"/>
-      <c r="AN75" s="72"/>
-      <c r="AO75" s="72"/>
-      <c r="AP75" s="72"/>
-      <c r="AQ75" s="72"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="70"/>
+      <c r="S75" s="70"/>
+      <c r="T75" s="70"/>
+      <c r="U75" s="70"/>
+      <c r="V75" s="70"/>
+      <c r="W75" s="70"/>
+      <c r="X75" s="70"/>
+      <c r="Y75" s="70"/>
+      <c r="Z75" s="70"/>
+      <c r="AA75" s="70"/>
+      <c r="AB75" s="70"/>
+      <c r="AC75" s="70"/>
+      <c r="AD75" s="71"/>
+      <c r="AE75" s="71"/>
+      <c r="AF75" s="71"/>
+      <c r="AG75" s="71"/>
+      <c r="AH75" s="71"/>
+      <c r="AI75" s="71"/>
+      <c r="AJ75" s="71"/>
+      <c r="AK75" s="71"/>
+      <c r="AL75" s="71"/>
+      <c r="AM75" s="71"/>
+      <c r="AN75" s="71"/>
+      <c r="AO75" s="71"/>
+      <c r="AP75" s="71"/>
+      <c r="AQ75" s="71"/>
       <c r="AR75"/>
       <c r="AS75"/>
       <c r="AT75"/>
@@ -75732,48 +75246,48 @@
     </row>
     <row r="76" spans="1:1025" customHeight="1" ht="15">
       <c r="A76"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="70"/>
-      <c r="O76" s="70"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
-      <c r="AA76" s="71"/>
-      <c r="AB76" s="71"/>
-      <c r="AC76" s="71"/>
-      <c r="AD76" s="72"/>
-      <c r="AE76" s="72"/>
-      <c r="AF76" s="72"/>
-      <c r="AG76" s="72"/>
-      <c r="AH76" s="72"/>
-      <c r="AI76" s="72"/>
-      <c r="AJ76" s="72"/>
-      <c r="AK76" s="72"/>
-      <c r="AL76" s="72"/>
-      <c r="AM76" s="72"/>
-      <c r="AN76" s="72"/>
-      <c r="AO76" s="72"/>
-      <c r="AP76" s="72"/>
-      <c r="AQ76" s="72"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="70"/>
+      <c r="Q76" s="70"/>
+      <c r="R76" s="70"/>
+      <c r="S76" s="70"/>
+      <c r="T76" s="70"/>
+      <c r="U76" s="70"/>
+      <c r="V76" s="70"/>
+      <c r="W76" s="70"/>
+      <c r="X76" s="70"/>
+      <c r="Y76" s="70"/>
+      <c r="Z76" s="70"/>
+      <c r="AA76" s="70"/>
+      <c r="AB76" s="70"/>
+      <c r="AC76" s="70"/>
+      <c r="AD76" s="71"/>
+      <c r="AE76" s="71"/>
+      <c r="AF76" s="71"/>
+      <c r="AG76" s="71"/>
+      <c r="AH76" s="71"/>
+      <c r="AI76" s="71"/>
+      <c r="AJ76" s="71"/>
+      <c r="AK76" s="71"/>
+      <c r="AL76" s="71"/>
+      <c r="AM76" s="71"/>
+      <c r="AN76" s="71"/>
+      <c r="AO76" s="71"/>
+      <c r="AP76" s="71"/>
+      <c r="AQ76" s="71"/>
       <c r="AR76"/>
       <c r="AS76"/>
       <c r="AT76"/>
@@ -76757,182 +76271,138 @@
       <c r="AMJ76"/>
     </row>
     <row r="77" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="70"/>
-      <c r="O77" s="70"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="71"/>
-      <c r="W77" s="71"/>
-      <c r="X77" s="71"/>
-      <c r="Y77" s="71"/>
-      <c r="Z77" s="71"/>
-      <c r="AA77" s="71"/>
-      <c r="AB77" s="71"/>
-      <c r="AC77" s="71"/>
-      <c r="AD77" s="72"/>
-      <c r="AE77" s="72"/>
-      <c r="AF77" s="72"/>
-      <c r="AG77" s="72"/>
-      <c r="AH77" s="72"/>
-      <c r="AI77" s="72"/>
-      <c r="AJ77" s="72"/>
-      <c r="AK77" s="72"/>
-      <c r="AL77" s="72"/>
-      <c r="AM77" s="72"/>
-      <c r="AN77" s="72"/>
-      <c r="AO77" s="72"/>
-      <c r="AP77" s="72"/>
-      <c r="AQ77" s="72"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="70"/>
+      <c r="R77" s="70"/>
+      <c r="S77" s="70"/>
+      <c r="T77" s="70"/>
+      <c r="U77" s="70"/>
+      <c r="V77" s="70"/>
+      <c r="W77" s="70"/>
+      <c r="X77" s="70"/>
+      <c r="Y77" s="70"/>
+      <c r="Z77" s="70"/>
+      <c r="AA77" s="70"/>
+      <c r="AB77" s="70"/>
+      <c r="AC77" s="70"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="71"/>
+      <c r="AF77" s="71"/>
+      <c r="AG77" s="71"/>
+      <c r="AH77" s="71"/>
+      <c r="AI77" s="71"/>
+      <c r="AJ77" s="71"/>
+      <c r="AK77" s="71"/>
+      <c r="AL77" s="71"/>
+      <c r="AM77" s="71"/>
+      <c r="AN77" s="71"/>
+      <c r="AO77" s="71"/>
+      <c r="AP77" s="71"/>
+      <c r="AQ77" s="71"/>
     </row>
     <row r="78" spans="1:1025" customHeight="1" ht="15">
-      <c r="B78" s="73"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-      <c r="AE78" s="11"/>
-      <c r="AF78" s="11"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="11"/>
-      <c r="AI78" s="11"/>
-      <c r="AJ78" s="11"/>
-      <c r="AK78" s="11"/>
-      <c r="AL78" s="11"/>
-      <c r="AM78" s="11"/>
-      <c r="AN78" s="11"/>
-      <c r="AO78" s="11"/>
-      <c r="AP78" s="11"/>
-      <c r="AQ78" s="12"/>
+      <c r="B78" s="72"/>
+      <c r="AQ78" s="11"/>
     </row>
     <row r="79" spans="1:1025" customHeight="1" ht="15">
-      <c r="B79" s="73"/>
-      <c r="C79" s="11"/>
+      <c r="B79" s="72"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="10"/>
       <c r="W79" s="10"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
-      <c r="Z79" s="40"/>
-      <c r="AA79" s="40"/>
-      <c r="AB79" s="40"/>
-      <c r="AC79" s="40"/>
-      <c r="AD79" s="40"/>
-      <c r="AE79" s="40"/>
-      <c r="AF79" s="40"/>
-      <c r="AG79" s="40"/>
-      <c r="AH79" s="40"/>
-      <c r="AI79" s="40"/>
-      <c r="AJ79" s="40"/>
-      <c r="AK79" s="40"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="39"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="39"/>
       <c r="AL79" s="10"/>
-      <c r="AM79" s="11"/>
-      <c r="AN79" s="11"/>
-      <c r="AO79" s="11"/>
-      <c r="AP79" s="76">
+      <c r="AP79" s="75">
         <v>13</v>
       </c>
-      <c r="AQ79" s="76"/>
+      <c r="AQ79" s="75"/>
     </row>
     <row r="80" spans="1:1025" customHeight="1" ht="15">
-      <c r="B80" s="77"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="78"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="78"/>
-      <c r="R80" s="78"/>
-      <c r="S80" s="78"/>
-      <c r="T80" s="78"/>
-      <c r="U80" s="78"/>
-      <c r="V80" s="78"/>
-      <c r="W80" s="78"/>
-      <c r="X80" s="78"/>
-      <c r="Y80" s="78"/>
-      <c r="Z80" s="78"/>
-      <c r="AA80" s="78"/>
-      <c r="AB80" s="78"/>
-      <c r="AC80" s="78"/>
-      <c r="AD80" s="78"/>
-      <c r="AE80" s="78"/>
-      <c r="AF80" s="78"/>
-      <c r="AG80" s="78"/>
-      <c r="AH80" s="78"/>
-      <c r="AI80" s="78"/>
-      <c r="AJ80" s="78"/>
-      <c r="AK80" s="78"/>
-      <c r="AL80" s="64"/>
-      <c r="AM80" s="64"/>
-      <c r="AN80" s="64"/>
-      <c r="AO80" s="64"/>
-      <c r="AP80" s="76"/>
-      <c r="AQ80" s="76"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
+      <c r="AB80" s="77"/>
+      <c r="AC80" s="77"/>
+      <c r="AD80" s="77"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+      <c r="AH80" s="77"/>
+      <c r="AI80" s="77"/>
+      <c r="AJ80" s="77"/>
+      <c r="AK80" s="77"/>
+      <c r="AL80" s="63"/>
+      <c r="AM80" s="63"/>
+      <c r="AN80" s="63"/>
+      <c r="AO80" s="63"/>
+      <c r="AP80" s="75"/>
+      <c r="AQ80" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
